--- a/OnBoard/output/trust/bio/Bio_Trust_48.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_48.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>FROSQ-2</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L2">
@@ -499,7 +499,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -529,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L3">
@@ -551,7 +551,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -581,11 +581,11 @@
         <v>1</v>
       </c>
       <c r="H4">
+        <v>29</v>
+      </c>
+      <c r="I4">
         <v>35</v>
       </c>
-      <c r="I4">
-        <v>57</v>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>F</t>
@@ -593,7 +593,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>FROSQ-2</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L4">
@@ -603,7 +603,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -633,29 +633,29 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
       <c r="L5">
         <v>0</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F6">
@@ -685,14 +685,19 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L6">
@@ -702,7 +707,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -717,7 +722,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -735,11 +740,16 @@
         <v>27</v>
       </c>
       <c r="I7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L7">
@@ -749,7 +759,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -769,7 +779,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F8">
@@ -779,34 +789,29 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L8">
         <v>0</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -821,43 +826,4476 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>45</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>38</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>35</v>
+      </c>
+      <c r="I13">
+        <v>49</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>55</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>34</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>34</v>
+      </c>
+      <c r="I16">
+        <v>65</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>31</v>
+      </c>
+      <c r="I17">
+        <v>36</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>70</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>32</v>
+      </c>
+      <c r="I19">
+        <v>47</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>31</v>
+      </c>
+      <c r="I20">
+        <v>51</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>33</v>
+      </c>
+      <c r="I21">
+        <v>46</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>33</v>
+      </c>
+      <c r="I22">
+        <v>66</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>34</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>35</v>
+      </c>
+      <c r="I24">
+        <v>61</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>42</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>41</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>61</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>29</v>
+      </c>
+      <c r="I28">
+        <v>34</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>27</v>
+      </c>
+      <c r="I29">
+        <v>34</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>33</v>
+      </c>
+      <c r="I30">
+        <v>43</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>25</v>
+      </c>
+      <c r="I31">
+        <v>27</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>33</v>
+      </c>
+      <c r="I32">
+        <v>49</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>28</v>
+      </c>
+      <c r="I33">
+        <v>40</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>CALLSAP</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>63</v>
+      </c>
+      <c r="I35">
+        <v>220</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>CALLSAP</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>58</v>
+      </c>
+      <c r="I36">
+        <v>144</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>CALLSAP</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>54</v>
+      </c>
+      <c r="I37">
+        <v>119</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>CALLSAP</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>57</v>
+      </c>
+      <c r="I38">
+        <v>140</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>21</v>
+      </c>
+      <c r="I39">
+        <v>14</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>43</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>25</v>
+      </c>
+      <c r="I41">
+        <v>28</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>LITHMOR</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>111</v>
+      </c>
+      <c r="I42">
+        <v>16</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>111</v>
+      </c>
+      <c r="I43">
+        <v>-1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>77</v>
+      </c>
+      <c r="I44">
+        <v>-1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>113</v>
+      </c>
+      <c r="I45">
+        <v>-1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>111</v>
+      </c>
+      <c r="I46">
+        <v>-1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>GOBINIG</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>112</v>
+      </c>
+      <c r="I47">
+        <v>-1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>GOBINIG</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>134</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GOBINIG</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>114</v>
+      </c>
+      <c r="I49">
+        <v>-1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>GOBINIG</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>125</v>
+      </c>
+      <c r="I50">
+        <v>-1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>GOBINIG</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>87</v>
+      </c>
+      <c r="I51">
+        <v>-1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>GOBINIG</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>97</v>
+      </c>
+      <c r="I52">
+        <v>-1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TRIGLUC</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>253</v>
+      </c>
+      <c r="I53">
+        <v>-1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>187</v>
+      </c>
+      <c r="I54">
+        <v>62</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
+        </is>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>162</v>
+      </c>
+      <c r="I55">
+        <v>45</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
+        </is>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>177</v>
+      </c>
+      <c r="I56">
+        <v>48</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
+        </is>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>180</v>
+      </c>
+      <c r="I57">
+        <v>54</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
+        </is>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>165</v>
+      </c>
+      <c r="I58">
+        <v>43</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>179</v>
+      </c>
+      <c r="I59">
+        <v>51</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
+        </is>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>165</v>
+      </c>
+      <c r="I60">
+        <v>40</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
+        </is>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>174</v>
+      </c>
+      <c r="I61">
+        <v>51</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
+        </is>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SOLEIMP</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>142</v>
+      </c>
+      <c r="I62">
+        <v>-1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>120</v>
+      </c>
+      <c r="I63">
+        <v>-1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>LIZARAM</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>391</v>
+      </c>
+      <c r="I64">
+        <v>-1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>1-RAP</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>RAJAAST</t>
-        </is>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>223</v>
-      </c>
-      <c r="I9">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>LIZARAM</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>520</v>
+      </c>
+      <c r="I65">
+        <v>-1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>LITHMOR</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>104</v>
+      </c>
+      <c r="I66">
+        <v>14</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>118</v>
+      </c>
+      <c r="I67">
+        <v>-1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>CALLSAP</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>62</v>
+      </c>
+      <c r="I68">
+        <v>173</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>CALLSAP</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>52</v>
+      </c>
+      <c r="I69">
+        <v>103</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>spina rotta</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>CALLSAP</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>68</v>
+      </c>
+      <c r="I70">
+        <v>230</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>CALLSAP</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>54</v>
+      </c>
+      <c r="I71">
+        <v>115</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>27</v>
+      </c>
+      <c r="I72">
+        <v>33</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>21</v>
+      </c>
+      <c r="I73">
+        <v>17</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>26</v>
+      </c>
+      <c r="I74">
+        <v>34</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>25</v>
+      </c>
+      <c r="I75">
+        <v>28</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>22</v>
+      </c>
+      <c r="I76">
+        <v>17</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>30</v>
+      </c>
+      <c r="I77">
+        <v>42</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>31</v>
+      </c>
+      <c r="I78">
+        <v>46</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>28</v>
+      </c>
+      <c r="I79">
+        <v>43</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>30</v>
+      </c>
+      <c r="I80">
+        <v>40</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>29</v>
+      </c>
+      <c r="I81">
+        <v>40</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>32</v>
+      </c>
+      <c r="I82">
+        <v>59</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>31</v>
+      </c>
+      <c r="I83">
+        <v>53</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>27</v>
+      </c>
+      <c r="I84">
+        <v>31</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>29</v>
+      </c>
+      <c r="I85">
+        <v>46</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>34</v>
+      </c>
+      <c r="I86">
         <v>61</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
-        </is>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>178</v>
+      </c>
+      <c r="I87">
+        <v>53</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
+        </is>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>169</v>
+      </c>
+      <c r="I88">
+        <v>44</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
+        </is>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>175</v>
+      </c>
+      <c r="I89">
+        <v>48</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
+        </is>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>184</v>
+      </c>
+      <c r="I90">
+        <v>59</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
+        </is>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>241</v>
+      </c>
+      <c r="I91">
+        <v>120</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>171</v>
+      </c>
+      <c r="I92">
+        <v>38</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
+        </is>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>SOLEIMP</t>
+        </is>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>148</v>
+      </c>
+      <c r="I93">
+        <v>-1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>SOLEIMP</t>
+        </is>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>141</v>
+      </c>
+      <c r="I94">
+        <v>-1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>141</v>
+      </c>
+      <c r="I95">
+        <v>23</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
+        </is>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>SS8359</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>147</v>
+      </c>
+      <c r="I96">
+        <v>25</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
+        </is>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>SS8360</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>152</v>
+      </c>
+      <c r="I97">
+        <v>30</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
+        </is>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>SS8361</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>34</v>
+      </c>
+      <c r="I98">
+        <v>21</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L98">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
